--- a/table/tableA4.xlsx
+++ b/table/tableA4.xlsx
@@ -1,43 +1,398 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Documents\GitHub\MPhil-Thesis-Project\table\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{69AE4B42-21B4-49CF-8DAF-50D04B9C49B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="2910" yWindow="1600" windowWidth="13480" windowHeight="11760"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="table_imp_ownership" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>State-owned Enterprises</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Domestic Private Enterprises</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Multinational Enterprises</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Joint Ventures</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Panel B-1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Panel B-2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线 Light"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -45,15 +400,308 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="42">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="42">
+    <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="标题 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="汇总" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="检查单元格" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -69,7 +717,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -85,7 +733,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -97,7 +745,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -114,7 +762,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -144,12 +792,29 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -179,6 +844,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -331,12 +1013,1155 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="B1" s="2" t="str">
+        <f>"(1)"</f>
+        <v>(1)</v>
+      </c>
+      <c r="C1" s="2" t="str">
+        <f>"(2)"</f>
+        <v>(2)</v>
+      </c>
+      <c r="D1" s="2" t="str">
+        <f>"(3)"</f>
+        <v>(3)</v>
+      </c>
+      <c r="E1" s="2" t="str">
+        <f>"(4)"</f>
+        <v>(4)</v>
+      </c>
+      <c r="F1" s="2" t="str">
+        <f>"(5)"</f>
+        <v>(5)</v>
+      </c>
+      <c r="G1" s="2" t="str">
+        <f>"(6)"</f>
+        <v>(6)</v>
+      </c>
+      <c r="H1" s="2" t="str">
+        <f>"(7)"</f>
+        <v>(7)</v>
+      </c>
+      <c r="I1" s="2" t="str">
+        <f>"(8)"</f>
+        <v>(8)</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="B3" s="2" t="str">
+        <f>"Baseline"</f>
+        <v>Baseline</v>
+      </c>
+      <c r="C3" s="2" t="str">
+        <f>"FPC"</f>
+        <v>FPC</v>
+      </c>
+      <c r="D3" s="2" t="str">
+        <f>"External Finance"</f>
+        <v>External Finance</v>
+      </c>
+      <c r="E3" s="2" t="str">
+        <f>"Tangibility"</f>
+        <v>Tangibility</v>
+      </c>
+      <c r="F3" s="2" t="str">
+        <f>"Baseline"</f>
+        <v>Baseline</v>
+      </c>
+      <c r="G3" s="2" t="str">
+        <f>"FPC"</f>
+        <v>FPC</v>
+      </c>
+      <c r="H3" s="2" t="str">
+        <f>"External Finance"</f>
+        <v>External Finance</v>
+      </c>
+      <c r="I3" s="2" t="str">
+        <f>"Tangibility"</f>
+        <v>Tangibility</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="str">
+        <f>"dlnRER"</f>
+        <v>dlnRER</v>
+      </c>
+      <c r="B4" t="str">
+        <f>"-0.012"</f>
+        <v>-0.012</v>
+      </c>
+      <c r="C4" t="str">
+        <f>"-0.032"</f>
+        <v>-0.032</v>
+      </c>
+      <c r="D4" t="str">
+        <f>"-0.034"</f>
+        <v>-0.034</v>
+      </c>
+      <c r="E4" t="str">
+        <f>"0.028"</f>
+        <v>0.028</v>
+      </c>
+      <c r="F4" t="str">
+        <f>"0.031***"</f>
+        <v>0.031***</v>
+      </c>
+      <c r="G4" t="str">
+        <f>"0.032***"</f>
+        <v>0.032***</v>
+      </c>
+      <c r="H4" t="str">
+        <f>"0.030***"</f>
+        <v>0.030***</v>
+      </c>
+      <c r="I4" t="str">
+        <f>"-0.008"</f>
+        <v>-0.008</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="B5" t="str">
+        <f>"(0.034)"</f>
+        <v>(0.034)</v>
+      </c>
+      <c r="C5" t="str">
+        <f>"(0.036)"</f>
+        <v>(0.036)</v>
+      </c>
+      <c r="D5" t="str">
+        <f>"(0.035)"</f>
+        <v>(0.035)</v>
+      </c>
+      <c r="E5" t="str">
+        <f>"(0.089)"</f>
+        <v>(0.089)</v>
+      </c>
+      <c r="F5" t="str">
+        <f>"(0.011)"</f>
+        <v>(0.011)</v>
+      </c>
+      <c r="G5" t="str">
+        <f>"(0.011)"</f>
+        <v>(0.011)</v>
+      </c>
+      <c r="H5" t="str">
+        <f>"(0.011)"</f>
+        <v>(0.011)</v>
+      </c>
+      <c r="I5" t="str">
+        <f>"(0.032)"</f>
+        <v>(0.032)</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="str">
+        <f>"dlnrgdp"</f>
+        <v>dlnrgdp</v>
+      </c>
+      <c r="B6" t="str">
+        <f>"0.310"</f>
+        <v>0.310</v>
+      </c>
+      <c r="C6" t="str">
+        <f>"0.301"</f>
+        <v>0.301</v>
+      </c>
+      <c r="D6" t="str">
+        <f>"0.298"</f>
+        <v>0.298</v>
+      </c>
+      <c r="E6" t="str">
+        <f>"0.308"</f>
+        <v>0.308</v>
+      </c>
+      <c r="F6" t="str">
+        <f>"0.079"</f>
+        <v>0.079</v>
+      </c>
+      <c r="G6" t="str">
+        <f>"0.079"</f>
+        <v>0.079</v>
+      </c>
+      <c r="H6" t="str">
+        <f>"0.079"</f>
+        <v>0.079</v>
+      </c>
+      <c r="I6" t="str">
+        <f>"0.078"</f>
+        <v>0.078</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="B7" t="str">
+        <f>"(0.225)"</f>
+        <v>(0.225)</v>
+      </c>
+      <c r="C7" t="str">
+        <f>"(0.225)"</f>
+        <v>(0.225)</v>
+      </c>
+      <c r="D7" t="str">
+        <f>"(0.225)"</f>
+        <v>(0.225)</v>
+      </c>
+      <c r="E7" t="str">
+        <f>"(0.225)"</f>
+        <v>(0.225)</v>
+      </c>
+      <c r="F7" t="str">
+        <f>"(0.076)"</f>
+        <v>(0.076)</v>
+      </c>
+      <c r="G7" t="str">
+        <f>"(0.076)"</f>
+        <v>(0.076)</v>
+      </c>
+      <c r="H7" t="str">
+        <f>"(0.076)"</f>
+        <v>(0.076)</v>
+      </c>
+      <c r="I7" t="str">
+        <f>"(0.076)"</f>
+        <v>(0.076)</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="str">
+        <f>"x_FPC_US"</f>
+        <v>x_FPC_US</v>
+      </c>
+      <c r="B8" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="C8" t="str">
+        <f>"0.034"</f>
+        <v>0.034</v>
+      </c>
+      <c r="D8" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="E8" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="F8" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="G8" t="str">
+        <f>"-0.004"</f>
+        <v>-0.004</v>
+      </c>
+      <c r="H8" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="I8" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="B9" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="C9" t="str">
+        <f>"(0.021)"</f>
+        <v>(0.021)</v>
+      </c>
+      <c r="D9" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="E9" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="F9" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="G9" t="str">
+        <f>"(0.009)"</f>
+        <v>(0.009)</v>
+      </c>
+      <c r="H9" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="I9" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" t="str">
+        <f>"x_ExtFin_US"</f>
+        <v>x_ExtFin_US</v>
+      </c>
+      <c r="B10" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="C10" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="D10" t="str">
+        <f>"0.116**"</f>
+        <v>0.116**</v>
+      </c>
+      <c r="E10" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="F10" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="G10" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="H10" t="str">
+        <f>"0.008"</f>
+        <v>0.008</v>
+      </c>
+      <c r="I10" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="B11" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="C11" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="D11" t="str">
+        <f>"(0.058)"</f>
+        <v>(0.058)</v>
+      </c>
+      <c r="E11" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="F11" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="G11" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="H11" t="str">
+        <f>"(0.026)"</f>
+        <v>(0.026)</v>
+      </c>
+      <c r="I11" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" t="str">
+        <f>"x_Tang_US"</f>
+        <v>x_Tang_US</v>
+      </c>
+      <c r="B12" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="C12" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="D12" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="E12" t="str">
+        <f>"-0.146"</f>
+        <v>-0.146</v>
+      </c>
+      <c r="F12" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="G12" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="H12" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="I12" t="str">
+        <f>"0.143"</f>
+        <v>0.143</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="B13" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="C13" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="D13" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="E13" t="str">
+        <f>"(0.304)"</f>
+        <v>(0.304)</v>
+      </c>
+      <c r="F13" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="G13" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="H13" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="I13" t="str">
+        <f>"(0.109)"</f>
+        <v>(0.109)</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" t="str">
+        <f>"Year FE "</f>
+        <v xml:space="preserve">Year FE </v>
+      </c>
+      <c r="B14" t="str">
+        <f t="shared" ref="B14:I14" si="0">"Yes"</f>
+        <v>Yes</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>Yes</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>Yes</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="0"/>
+        <v>Yes</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="0"/>
+        <v>Yes</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="0"/>
+        <v>Yes</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="0"/>
+        <v>Yes</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="0"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" t="str">
+        <f>"Firm-product-country FE"</f>
+        <v>Firm-product-country FE</v>
+      </c>
+      <c r="B15" t="str">
+        <f t="shared" ref="B15:I15" si="1">"Yes"</f>
+        <v>Yes</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="1"/>
+        <v>Yes</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="1"/>
+        <v>Yes</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="1"/>
+        <v>Yes</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="1"/>
+        <v>Yes</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="1"/>
+        <v>Yes</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="1"/>
+        <v>Yes</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="1"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="str">
+        <f>"N"</f>
+        <v>N</v>
+      </c>
+      <c r="B16" s="2" t="str">
+        <f>"26894"</f>
+        <v>26894</v>
+      </c>
+      <c r="C16" s="2" t="str">
+        <f>"26894"</f>
+        <v>26894</v>
+      </c>
+      <c r="D16" s="2" t="str">
+        <f>"26894"</f>
+        <v>26894</v>
+      </c>
+      <c r="E16" s="2" t="str">
+        <f>"26894"</f>
+        <v>26894</v>
+      </c>
+      <c r="F16" s="2" t="str">
+        <f>"484522"</f>
+        <v>484522</v>
+      </c>
+      <c r="G16" s="2" t="str">
+        <f>"484522"</f>
+        <v>484522</v>
+      </c>
+      <c r="H16" s="2" t="str">
+        <f>"484522"</f>
+        <v>484522</v>
+      </c>
+      <c r="I16" s="2" t="str">
+        <f>"484522"</f>
+        <v>484522</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2" t="str">
+        <f>"Baseline"</f>
+        <v>Baseline</v>
+      </c>
+      <c r="C18" s="2" t="str">
+        <f>"FPC"</f>
+        <v>FPC</v>
+      </c>
+      <c r="D18" s="2" t="str">
+        <f>"External Finance"</f>
+        <v>External Finance</v>
+      </c>
+      <c r="E18" s="2" t="str">
+        <f>"Tangibility"</f>
+        <v>Tangibility</v>
+      </c>
+      <c r="F18" s="2" t="str">
+        <f>"Baseline"</f>
+        <v>Baseline</v>
+      </c>
+      <c r="G18" s="2" t="str">
+        <f>"FPC"</f>
+        <v>FPC</v>
+      </c>
+      <c r="H18" s="2" t="str">
+        <f>"External Finance"</f>
+        <v>External Finance</v>
+      </c>
+      <c r="I18" s="2" t="str">
+        <f>"Tangibility"</f>
+        <v>Tangibility</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" t="str">
+        <f>"dlnRER"</f>
+        <v>dlnRER</v>
+      </c>
+      <c r="B19" t="str">
+        <f>"0.032***"</f>
+        <v>0.032***</v>
+      </c>
+      <c r="C19" t="str">
+        <f>"0.045***"</f>
+        <v>0.045***</v>
+      </c>
+      <c r="D19" t="str">
+        <f>"0.038***"</f>
+        <v>0.038***</v>
+      </c>
+      <c r="E19" t="str">
+        <f>"-0.048**"</f>
+        <v>-0.048**</v>
+      </c>
+      <c r="F19" t="str">
+        <f>"0.031***"</f>
+        <v>0.031***</v>
+      </c>
+      <c r="G19" t="str">
+        <f>"0.042***"</f>
+        <v>0.042***</v>
+      </c>
+      <c r="H19" t="str">
+        <f>"0.036***"</f>
+        <v>0.036***</v>
+      </c>
+      <c r="I19" t="str">
+        <f>"-0.026"</f>
+        <v>-0.026</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="B20" t="str">
+        <f>"(0.009)"</f>
+        <v>(0.009)</v>
+      </c>
+      <c r="C20" t="str">
+        <f>"(0.009)"</f>
+        <v>(0.009)</v>
+      </c>
+      <c r="D20" t="str">
+        <f>"(0.009)"</f>
+        <v>(0.009)</v>
+      </c>
+      <c r="E20" t="str">
+        <f>"(0.024)"</f>
+        <v>(0.024)</v>
+      </c>
+      <c r="F20" t="str">
+        <f>"(0.009)"</f>
+        <v>(0.009)</v>
+      </c>
+      <c r="G20" t="str">
+        <f>"(0.010)"</f>
+        <v>(0.010)</v>
+      </c>
+      <c r="H20" t="str">
+        <f>"(0.009)"</f>
+        <v>(0.009)</v>
+      </c>
+      <c r="I20" t="str">
+        <f>"(0.025)"</f>
+        <v>(0.025)</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" t="str">
+        <f>"dlnrgdp"</f>
+        <v>dlnrgdp</v>
+      </c>
+      <c r="B21" t="str">
+        <f>"-0.183***"</f>
+        <v>-0.183***</v>
+      </c>
+      <c r="C21" t="str">
+        <f>"-0.187***"</f>
+        <v>-0.187***</v>
+      </c>
+      <c r="D21" t="str">
+        <f>"-0.185***"</f>
+        <v>-0.185***</v>
+      </c>
+      <c r="E21" t="str">
+        <f>"-0.188***"</f>
+        <v>-0.188***</v>
+      </c>
+      <c r="F21" t="str">
+        <f>"-0.080"</f>
+        <v>-0.080</v>
+      </c>
+      <c r="G21" t="str">
+        <f>"-0.079"</f>
+        <v>-0.079</v>
+      </c>
+      <c r="H21" t="str">
+        <f>"-0.078"</f>
+        <v>-0.078</v>
+      </c>
+      <c r="I21" t="str">
+        <f>"-0.080"</f>
+        <v>-0.080</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="B22" t="str">
+        <f>"(0.059)"</f>
+        <v>(0.059)</v>
+      </c>
+      <c r="C22" t="str">
+        <f>"(0.059)"</f>
+        <v>(0.059)</v>
+      </c>
+      <c r="D22" t="str">
+        <f>"(0.059)"</f>
+        <v>(0.059)</v>
+      </c>
+      <c r="E22" t="str">
+        <f>"(0.059)"</f>
+        <v>(0.059)</v>
+      </c>
+      <c r="F22" t="str">
+        <f>"(0.062)"</f>
+        <v>(0.062)</v>
+      </c>
+      <c r="G22" t="str">
+        <f>"(0.062)"</f>
+        <v>(0.062)</v>
+      </c>
+      <c r="H22" t="str">
+        <f>"(0.062)"</f>
+        <v>(0.062)</v>
+      </c>
+      <c r="I22" t="str">
+        <f>"(0.062)"</f>
+        <v>(0.062)</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" t="str">
+        <f>"x_FPC_US"</f>
+        <v>x_FPC_US</v>
+      </c>
+      <c r="B23" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="C23" t="str">
+        <f>"-0.028***"</f>
+        <v>-0.028***</v>
+      </c>
+      <c r="D23" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="E23" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="F23" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="G23" t="str">
+        <f>"-0.026***"</f>
+        <v>-0.026***</v>
+      </c>
+      <c r="H23" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="I23" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="B24" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="C24" t="str">
+        <f>"(0.007)"</f>
+        <v>(0.007)</v>
+      </c>
+      <c r="D24" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="E24" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="F24" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="G24" t="str">
+        <f>"(0.007)"</f>
+        <v>(0.007)</v>
+      </c>
+      <c r="H24" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="I24" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" t="str">
+        <f>"x_ExtFin_US"</f>
+        <v>x_ExtFin_US</v>
+      </c>
+      <c r="B25" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="C25" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="D25" t="str">
+        <f>"-0.072***"</f>
+        <v>-0.072***</v>
+      </c>
+      <c r="E25" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="F25" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="G25" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="H25" t="str">
+        <f>"-0.078***"</f>
+        <v>-0.078***</v>
+      </c>
+      <c r="I25" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="B26" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="C26" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="D26" t="str">
+        <f>"(0.023)"</f>
+        <v>(0.023)</v>
+      </c>
+      <c r="E26" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="F26" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="G26" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="H26" t="str">
+        <f>"(0.022)"</f>
+        <v>(0.022)</v>
+      </c>
+      <c r="I26" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" t="str">
+        <f>"x_Tang_US"</f>
+        <v>x_Tang_US</v>
+      </c>
+      <c r="B27" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="C27" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="D27" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="E27" t="str">
+        <f>"0.308***"</f>
+        <v>0.308***</v>
+      </c>
+      <c r="F27" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="G27" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="H27" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="I27" t="str">
+        <f>"0.218**"</f>
+        <v>0.218**</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="B28" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="C28" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="D28" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="E28" t="str">
+        <f>"(0.086)"</f>
+        <v>(0.086)</v>
+      </c>
+      <c r="F28" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="G28" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="H28" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="I28" t="str">
+        <f>"(0.089)"</f>
+        <v>(0.089)</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" t="str">
+        <f>"Year FE "</f>
+        <v xml:space="preserve">Year FE </v>
+      </c>
+      <c r="B29" t="str">
+        <f t="shared" ref="B29:I29" si="2">"Yes"</f>
+        <v>Yes</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
+      <c r="F29" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
+      <c r="H29" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
+      <c r="I29" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" t="str">
+        <f>"Firm-product-country FE"</f>
+        <v>Firm-product-country FE</v>
+      </c>
+      <c r="B30" t="str">
+        <f t="shared" ref="B30:I30" si="3">"Yes"</f>
+        <v>Yes</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="3"/>
+        <v>Yes</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="3"/>
+        <v>Yes</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="3"/>
+        <v>Yes</v>
+      </c>
+      <c r="F30" t="str">
+        <f t="shared" si="3"/>
+        <v>Yes</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="3"/>
+        <v>Yes</v>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" si="3"/>
+        <v>Yes</v>
+      </c>
+      <c r="I30" t="str">
+        <f t="shared" si="3"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="str">
+        <f>"N"</f>
+        <v>N</v>
+      </c>
+      <c r="B31" s="2" t="str">
+        <f>"711685"</f>
+        <v>711685</v>
+      </c>
+      <c r="C31" s="2" t="str">
+        <f>"711685"</f>
+        <v>711685</v>
+      </c>
+      <c r="D31" s="2" t="str">
+        <f>"711685"</f>
+        <v>711685</v>
+      </c>
+      <c r="E31" s="2" t="str">
+        <f>"711685"</f>
+        <v>711685</v>
+      </c>
+      <c r="F31" s="2" t="str">
+        <f>"570873"</f>
+        <v>570873</v>
+      </c>
+      <c r="G31" s="2" t="str">
+        <f>"570873"</f>
+        <v>570873</v>
+      </c>
+      <c r="H31" s="2" t="str">
+        <f>"570873"</f>
+        <v>570873</v>
+      </c>
+      <c r="I31" s="2" t="str">
+        <f>"570873"</f>
+        <v>570873</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F17:I17"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>